--- a/excelfile/new_datasave_ite.xlsx
+++ b/excelfile/new_datasave_ite.xlsx
@@ -14,48 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Employee No.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>Time in</t>
   </si>
   <si>
     <t>Time out</t>
   </si>
   <si>
-    <t>15-12-2022</t>
-  </si>
-  <si>
-    <t>ekel</t>
-  </si>
-  <si>
-    <t>ITE</t>
-  </si>
-  <si>
-    <t>2:30:PM</t>
-  </si>
-  <si>
-    <t>3:30:PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departmet:_ITE_ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name:________________ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employee No:________________ </t>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Early Dismissal</t>
+  </si>
+  <si>
+    <t>Friday 1:00:PM - 2:00:PM (401)</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Departmet:  ITE</t>
+  </si>
+  <si>
+    <t>Name:  josel</t>
+  </si>
+  <si>
+    <t>Employee No:  23653234</t>
   </si>
 </sst>
 </file>
@@ -414,26 +411,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,16 +446,13 @@
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5">
-        <v>35634</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -468,9 +462,6 @@
       </c>
       <c r="E5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
